--- a/data/trans_dic/P16A02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2403670645224434</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3303420217999148</v>
+        <v>0.3303420217999149</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3199097628629181</v>
@@ -697,7 +697,7 @@
         <v>0.3401639230403005</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4827867396556697</v>
+        <v>0.4827867396556696</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1624969570142736</v>
+        <v>0.1627019219059903</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2153251321607602</v>
+        <v>0.220587344101891</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2108778234465312</v>
+        <v>0.2096189298705169</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2937084409482978</v>
+        <v>0.2948388217985439</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2948874862542409</v>
+        <v>0.2952066702172225</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3823804008112732</v>
+        <v>0.3796344267697834</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3832465877956154</v>
+        <v>0.3850013929825589</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5616197010692445</v>
+        <v>0.5618130188974686</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2444406513992851</v>
+        <v>0.2433998659054318</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3187482613011599</v>
+        <v>0.3226968795034506</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3184341794929725</v>
+        <v>0.3164124253905424</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4596880981752034</v>
+        <v>0.4605333417920338</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2085962877073165</v>
+        <v>0.2096795234427921</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2757574646148426</v>
+        <v>0.2775354251510354</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2714643137525194</v>
+        <v>0.2701430235257687</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3694216962421832</v>
+        <v>0.3694220440371546</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3445907670247688</v>
+        <v>0.3458595080603004</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.437969838620463</v>
+        <v>0.4370061797871972</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4488904833236861</v>
+        <v>0.4504179204763043</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6146835192518149</v>
+        <v>0.6158132462774272</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2808719790471385</v>
+        <v>0.2786404098635825</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3603534184267235</v>
+        <v>0.3639278671803663</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3641679628795921</v>
+        <v>0.3624903603421004</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5060419743774109</v>
+        <v>0.5059886635777706</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1041263295902348</v>
+        <v>0.1029927460845453</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1453498019847846</v>
+        <v>0.1479770880195002</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1538450746839764</v>
+        <v>0.1539787464763634</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2079350151178805</v>
+        <v>0.2080739376082599</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1680165585992051</v>
+        <v>0.1678641365669807</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2746242442303525</v>
+        <v>0.2698499538691813</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2537593912377077</v>
+        <v>0.2526647227653516</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3258275358258123</v>
+        <v>0.3280814410997976</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1390919070486121</v>
+        <v>0.1385819604524741</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2111585330920167</v>
+        <v>0.2116783823134548</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2065258404235335</v>
+        <v>0.2073249934006923</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2713787779715077</v>
+        <v>0.2726459430174972</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1340776376673526</v>
+        <v>0.1340597572864459</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.180694574034887</v>
+        <v>0.1810984644103278</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1884004255318446</v>
+        <v>0.1878649873106609</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.246830734961706</v>
+        <v>0.2465248405019116</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.208802946334224</v>
+        <v>0.2065801718701529</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.318626125304076</v>
+        <v>0.3159405735553822</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2949092601536162</v>
+        <v>0.2933092633606553</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3648356637838843</v>
+        <v>0.3637802667529483</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1632000030023262</v>
+        <v>0.1626588532117927</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2401650560941485</v>
+        <v>0.2386337177097112</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2341789155710587</v>
+        <v>0.2347656667870385</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2980603408258544</v>
+        <v>0.3004220121562066</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.2234401113801539</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2469356954784294</v>
+        <v>0.2469356954784293</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0919827210412428</v>
+        <v>0.08945461526627004</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07981424027900684</v>
+        <v>0.07967948254838804</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1493972051235572</v>
+        <v>0.1490385528552328</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1697241136867743</v>
+        <v>0.1655019731278342</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.157062805691061</v>
+        <v>0.1589130181055319</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2286958266405187</v>
+        <v>0.2266884530875363</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2258899310937038</v>
+        <v>0.2259918829946461</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2655600379544393</v>
+        <v>0.2633445604642493</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1298681266987398</v>
+        <v>0.1278340548473453</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1597264947380806</v>
+        <v>0.1584174080418944</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.195858117931616</v>
+        <v>0.2000972003158043</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2247046115779083</v>
+        <v>0.226048108671049</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1432802823257183</v>
+        <v>0.1466697232399181</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.138727531327112</v>
+        <v>0.1404773828505349</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.219957846860318</v>
+        <v>0.2189581629897683</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2423512032779679</v>
+        <v>0.2363088698637146</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2312329965397042</v>
+        <v>0.2326691932584067</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3131103746166392</v>
+        <v>0.3159318081330678</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2999489956446066</v>
+        <v>0.3050163352439971</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3259503385862806</v>
+        <v>0.3246796078432037</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1734088431093948</v>
+        <v>0.1722124263887207</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2133498106971349</v>
+        <v>0.2130091310028692</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2493948305166707</v>
+        <v>0.2497518045167646</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2719921094891879</v>
+        <v>0.2685837246857581</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2512817078443292</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3158901748129179</v>
+        <v>0.3158901748129178</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1278369250593171</v>
+        <v>0.1288035802922524</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1653590660317121</v>
+        <v>0.1661641736159901</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1750297968678042</v>
+        <v>0.1738147823434902</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.223979813896558</v>
+        <v>0.2221977815023143</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2230165773152083</v>
+        <v>0.2251172689902149</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3190868659704311</v>
+        <v>0.3182000368246284</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.295504731372755</v>
+        <v>0.2961588221486072</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3756717331255764</v>
+        <v>0.3755507638338991</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1802478810361731</v>
+        <v>0.1809605769659962</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.247118036669094</v>
+        <v>0.2474052997180131</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2409034832094283</v>
+        <v>0.2400488945436351</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3052708377405622</v>
+        <v>0.3052984139479284</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1518821427036345</v>
+        <v>0.1524366845382654</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1930301093087619</v>
+        <v>0.1933779649871886</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2024550161321194</v>
+        <v>0.2009647205773466</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2544524087346044</v>
+        <v>0.2547676656145354</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2539365865744282</v>
+        <v>0.2535422224601881</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3518607900382315</v>
+        <v>0.3519157290036344</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3272501195713931</v>
+        <v>0.3281988201384994</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4040878455581497</v>
+        <v>0.403005578206038</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1993702765569464</v>
+        <v>0.2006551738634096</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.26971435750126</v>
+        <v>0.269221360900216</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2633268407118605</v>
+        <v>0.2626769410120851</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3267147262970641</v>
+        <v>0.3275163083923486</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>167652</v>
+        <v>167863</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>209690</v>
+        <v>214814</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>159075</v>
+        <v>158125</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>169919</v>
+        <v>170573</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>387810</v>
+        <v>388230</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>509915</v>
+        <v>506253</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>381200</v>
+        <v>382945</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>460928</v>
+        <v>461087</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>573662</v>
+        <v>571219</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>735465</v>
+        <v>744576</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>556944</v>
+        <v>553408</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>643214</v>
+        <v>644397</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>215214</v>
+        <v>216331</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>268540</v>
+        <v>270272</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>204778</v>
+        <v>203782</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>213721</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>453176</v>
+        <v>454844</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>584045</v>
+        <v>582760</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>446493</v>
+        <v>448013</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>504478</v>
+        <v>505405</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>659160</v>
+        <v>653923</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>831463</v>
+        <v>839711</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>636932</v>
+        <v>633998</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>708075</v>
+        <v>708000</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>176223</v>
+        <v>174304</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>284889</v>
+        <v>290038</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>319442</v>
+        <v>319719</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>463813</v>
+        <v>464123</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>266755</v>
+        <v>266513</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>482167</v>
+        <v>473785</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>504550</v>
+        <v>502373</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>707276</v>
+        <v>712169</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>456231</v>
+        <v>454558</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>784614</v>
+        <v>786545</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>839462</v>
+        <v>842711</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1194412</v>
+        <v>1199990</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>226912</v>
+        <v>226882</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>354165</v>
+        <v>354957</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>391192</v>
+        <v>390080</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>550572</v>
+        <v>549890</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>331511</v>
+        <v>327982</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>559423</v>
+        <v>554708</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>586368</v>
+        <v>583187</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>791951</v>
+        <v>789660</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>535307</v>
+        <v>533532</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>892395</v>
+        <v>886705</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>951864</v>
+        <v>954248</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1311845</v>
+        <v>1322240</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>50720</v>
+        <v>49326</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>38337</v>
+        <v>38273</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>81703</v>
+        <v>81507</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>120773</v>
+        <v>117769</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>74827</v>
+        <v>75708</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>104664</v>
+        <v>103745</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>124045</v>
+        <v>124101</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>195154</v>
+        <v>193526</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>133481</v>
+        <v>131390</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>149821</v>
+        <v>148593</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>214666</v>
+        <v>219312</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>325027</v>
+        <v>326970</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>79006</v>
+        <v>80875</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>66635</v>
+        <v>67476</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>120292</v>
+        <v>119745</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>172454</v>
+        <v>168154</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>110162</v>
+        <v>110846</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>143296</v>
+        <v>144587</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>164714</v>
+        <v>167497</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>239533</v>
+        <v>238600</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>178233</v>
+        <v>177003</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>200119</v>
+        <v>199800</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>273343</v>
+        <v>273735</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>393427</v>
+        <v>388497</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>418733</v>
+        <v>421899</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>564566</v>
+        <v>567315</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>591184</v>
+        <v>587080</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>788562</v>
+        <v>782288</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>753617</v>
+        <v>760716</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1131774</v>
+        <v>1128629</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1043752</v>
+        <v>1046063</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1399864</v>
+        <v>1399414</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1199500</v>
+        <v>1204242</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1720213</v>
+        <v>1722213</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1664575</v>
+        <v>1658670</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2212291</v>
+        <v>2212491</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>497494</v>
+        <v>499310</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>659040</v>
+        <v>660228</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>683816</v>
+        <v>678782</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>895846</v>
+        <v>896956</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>858102</v>
+        <v>856769</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1248021</v>
+        <v>1248216</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1155880</v>
+        <v>1159231</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1505751</v>
+        <v>1501718</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1326754</v>
+        <v>1335304</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1877508</v>
+        <v>1874076</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1819514</v>
+        <v>1815024</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2367695</v>
+        <v>2373504</v>
       </c>
     </row>
     <row r="20">
